--- a/biology/Zoologie/Hespérie_du_dactyle/Hespérie_du_dactyle.xlsx
+++ b/biology/Zoologie/Hespérie_du_dactyle/Hespérie_du_dactyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_dactyle</t>
+          <t>Hespérie_du_dactyle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thymelicus lineola
 Thymelicus lineola, appelée en Europe l’Hespérie du dactyle et au Canada l’Hespérie des graminées, est une espèce de lépidoptères (papillons) de la famille des Hesperiidae et de la sous-famille des Hesperiinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_dactyle</t>
+          <t>Hespérie_du_dactyle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En français :
-en Europe : l'Hespérie du dactyle, ou plus rarement le Ligné ou l'Hespérie orangée[1] (attention, ce dernier nom désigne aux Antilles une autre espèce, Wallengrenia ophites),
-au Canada : l'Hespérie des graminées[2] ou l'Hespérie européenne[1].
-En anglais : Essex Skipper en Europe, et European Skipperling ou European Skipper en Amérique du Nord[3].
+en Europe : l'Hespérie du dactyle, ou plus rarement le Ligné ou l'Hespérie orangée (attention, ce dernier nom désigne aux Antilles une autre espèce, Wallengrenia ophites),
+au Canada : l'Hespérie des graminées ou l'Hespérie européenne.
+En anglais : Essex Skipper en Europe, et European Skipperling ou European Skipper en Amérique du Nord.
 En allemand : Schwarzkolbiger Braun-Dickkopffalter.
-En espagnol : Dorada línea corta[3].
+En espagnol : Dorada línea corta.
 En turc : Siyah antenli zıpzıp.</t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_dactyle</t>
+          <t>Hespérie_du_dactyle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Thymelicus lineola a été nommé par Ferdinand Ochsenheimer en 1808[4].
-Synonyme
-Thymelicus lineolus (Ochsenheimer, 1808)[5].
-Sous-espèces
-Thymelicus lineola kushana Wyatt, 1961; en Afghanistan.
-Thymelicus lineola semicolon Staudinger, 1892; en Algérie et en Tunisie[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thymelicus lineola a été nommé par Ferdinand Ochsenheimer en 1808.
+</t>
         </is>
       </c>
     </row>
@@ -565,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_dactyle</t>
+          <t>Hespérie_du_dactyle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +592,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thymelicus lineolus (Ochsenheimer, 1808).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hespérie_du_dactyle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_dactyle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thymelicus lineola kushana Wyatt, 1961; en Afghanistan.
+Thymelicus lineola semicolon Staudinger, 1892; en Algérie et en Tunisie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_du_dactyle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_dactyle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les Hesperiidae, l'Hespérie du dactyle porte ses ailes antérieures partiellement redressées quand il est posé. C'est un petit papillon d'une envergure de 24 mm à 28 mm aux ailes orange vif bordées de marron. Le mâle présente au recto de l'aile antérieure une courte ligne androconiale noire. Les massues antennaires sont noires (contrairement celles à l'Hespérie de la houque ou Thymelicus sylvestris, qui sont orange)[6],[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les Hesperiidae, l'Hespérie du dactyle porte ses ailes antérieures partiellement redressées quand il est posé. C'est un petit papillon d'une envergure de 24 mm à 28 mm aux ailes orange vif bordées de marron. Le mâle présente au recto de l'aile antérieure une courte ligne androconiale noire. Les massues antennaires sont noires (contrairement celles à l'Hespérie de la houque ou Thymelicus sylvestris, qui sont orange),.
 </t>
         </is>
       </c>
